--- a/data/embryo_dev_nest_conditions_citations.xlsx
+++ b/data/embryo_dev_nest_conditions_citations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggarc\OneDrive\research\viviparity-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{447B2F2C-4C79-476F-94C9-080F9E3C93D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297F055-3C85-4CF3-81B4-DFDF12F2FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16815" yWindow="0" windowWidth="21690" windowHeight="20985" xr2:uid="{48D4F3C0-EF09-454E-BC6D-BBC337A36BFE}"/>
+    <workbookView xWindow="22875" yWindow="0" windowWidth="15630" windowHeight="20985" activeTab="1" xr2:uid="{48D4F3C0-EF09-454E-BC6D-BBC337A36BFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="embryo-development-phenology" sheetId="1" r:id="rId1"/>
+    <sheet name="nesting-conditions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>breeding_ref</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>breed_citation</t>
   </si>
@@ -162,6 +160,1078 @@
         <family val="2"/>
       </rPr>
       <t> (1989): 237-243.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Andrews, R. M. (1979). Reproductive effort of female Anolis limifrons (Sauria: Iguanidae). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Copeia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 620-626.</t>
+    </r>
+  </si>
+  <si>
+    <t>Campbell, H. W. (1973). Ecological observations on Anolis lionotus and Anolis poecilopus (Reptilia, Sauria) in Panama. American Museum novitates; no. 2516.</t>
+  </si>
+  <si>
+    <r>
+      <t>Fitch, H. S. (1972). Ecology of Anolis tropidolepis in Costa Rican cloud forest. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Herpetologica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 10-21.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pianka, Eric R. (1970). "Comparative autecology of the lizard Cnemidophorus tigris in different parts of its geographic range". Ecology. 51 (4): 703–720. doi:10.2307/1934053. JSTOR 1934053.</t>
+  </si>
+  <si>
+    <t>Smith, D. D., Medica, P. A., &amp; Sanborn, S. R. (1987). Ecological comparison of sympatric populations of sand lizards (Cophosaurus texanus and Callisaurus draconoides). The Great Basin Naturalist, 175-185.</t>
+  </si>
+  <si>
+    <t>Cruz-Elizalde, R., Ramírez-Bautista, A., Lozano, A., Luría-Manzano, R., Hernández-Ibarra, X., Ramos-Flores, O., ... &amp; Berriozabal-Islas, C. (2023). Reproductive strategies of a lizard community from an arid environment of Mexico. Journal of Arid Environments, 208, 104875.</t>
+  </si>
+  <si>
+    <t>Read, J. L. (1998). "The ecology of sympatric scincid lizards (Ctenotus) in arid South Australia". Australian Journal of Zoology. 46 (6): 617–629. doi:10.1071/ZO97063 – via CSIRO Publishing.</t>
+  </si>
+  <si>
+    <t>Taylor, Janet A. "Reproductive biology of the Australian lizard Ctenotus taeniolatus." Herpetologica (1985): 408-418.</t>
+  </si>
+  <si>
+    <t>Stebbins, R. C., &amp; McGinnis, S. M. (2018). Peterson field guide to western reptiles &amp; amphibians. Houghton Mifflin.</t>
+  </si>
+  <si>
+    <r>
+      <t>Van Wyk, J. H., &amp; le FN Mouton, P. (1996). The reproductive cycles of the oviparous lizards. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Amphibia-Reptilia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 115-129.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Murphy, K., Hudson, S., &amp; Shea, G. (2006). Reproductive seasonality of three cold-temperate viviparous skinks from southeastern Australia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Herpetology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 454-464.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ramírez-Bautista, A., Cruz-Elizalde, R., Galván-Hernández, D. M., Hernández-Salinas, U., &amp; Berriozabal-Islas, C. (2020). Sexual dimorphism and reproductive characteristics of the Cozumel Spiny Lizard, Sceloporus cozumelae (Squamata: Phrynosomatidae) from Mexico. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Current herpetology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 19-27.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Godínez-Cano, E. (1985). Ciclo reproductivo de Sceloporus megalepidurus megalepidurus, Smith (Reptilia: Sauria: Iguanidae), en la parte oriental de Tlaxcala, México. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Universidad Nacional Autónoma de México, México, DF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ramírez‐Bautista, A., Sites Jr, J. W., Marshall, J. C., Cruz‐Elizalde, R., Díaz‐Marín, C. A., Hernández‐Salinas, U., ... &amp; García‐Rosales, A. (2021). Reproduction and sexual dimorphism in the viviparous lizard Sceloporus palaciosi (Squamata: Phrynosomatidae) from the Trans‐Mexican Volcanic Belt, Mexico. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acta Zoologica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 63-76.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ramírez-Bautista, A., Luría-Manzano, R., Cruz-Elizalde, R., Pavón, N. P., &amp; Wilson, L. D. (2015). Variation in reproduction and sexual dimorphism in the long-tailed spiny lizard, Sceloporus siniferus, from the southern Pacific coast of Mexico. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Salamandra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>51</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>López-Ortiz, R., &amp; Lewis, A. R. (2002). Seasonal abundance of hatchlings and gravid females of Sphaerodactylus nicholsi in Cabo Rojo, Puerto Rico. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Herpetology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 276-280.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Smith-Dorr, R. F. (2019). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Niche partitioning strategies of two endemic Sphaerodactylus (Squamata: Gekkota) species found at the Salt Flats Refuge in Cabo Rojo, Puerto Rico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Doctoral dissertation).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ramírez-Bautista, A., &amp; Vitt, L. J. (1998). Reproductive biology of Urosaurus bicarinatus (Sauria: Phrynosomatidae) from a tropical dry forest of México. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Southwestern Naturalist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 381-390.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SATER, N. M. (2018). ANOLIS CAROLINENSIS (Green Anole). NEST SITES AND COM. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Herpetological Review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tiatragul, S., &amp; Warner, D. A. (2019). Beating the Heat: nest characteristics of anoles across suburban and forest habitats in South Miami. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anolis Newsletter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cogger, H.G. (1979). Reptiles and Amphibians of Australia.</t>
+  </si>
+  <si>
+    <t>Rodríguez-Domínguez, M. A., &amp; Molina-Borja, M. (1998). Reproduction of the endangered Hierro giant lizard Gallotia simonyi machadoi. Journal of Herpetology, 498-504.</t>
+  </si>
+  <si>
+    <t>Smyth, M., &amp; Smith, M. J. (1968). Obligatory sperm storage in the skink Hemiergis peronii. Science, 161(3841), 575-576.</t>
+  </si>
+  <si>
+    <t>Olsson, M., &amp; Shine, R. (1997). The seasonal timing of oviposition in sand lizards (Lacerta agilis): why early clutches are better. Journal of Evolutionary Biology, 10(3), 369-381.</t>
+  </si>
+  <si>
+    <t>James, C., &amp; Shine, R. (1985). The seasonal timing of reproduction: a tropical-temperate comparison in Australian lizards. Oecologia, 67, 464-474.</t>
+  </si>
+  <si>
+    <t>Goldberg, S. R., &amp; Beaman, K. R. (2004). Reproduction in the San Lucan banded rock lizard, Petrosaurus thalassinus (Phrynosomatidae) from Baja California Sur, Mexico. Bulletin of the Southern California Academy of Sciences, 103(3), 147-150.</t>
+  </si>
+  <si>
+    <t>Hodges, W. L. (2002). Phrynosoma systematics, comparative reproductive ecology, and conservation of a Texas native. The University of Texas at Austin.</t>
+  </si>
+  <si>
+    <t>Howard, C. W. (1974). Comparative reproductive ecology of horned lizards (genus Phrynosoma) in southwestern United States and northern Mexico. Journal of the Arizona Academy of Science, 9(3), 108-116.</t>
+  </si>
+  <si>
+    <t>Goldberg, S. R. (1971). Reproduction in the short-horned lizard Phrynosoma douglassi in Arizona. Herpetologica, 311-314.</t>
+  </si>
+  <si>
+    <t>Barbault, R., &amp; Mou, Y. P. (1988). Population dynamics of the common wall lizard, Podarcis muralis, in southwestern France. Herpetologica, 38-47.</t>
+  </si>
+  <si>
+    <t>Pérez-Quintero, J. C. (1996). Reproductive characteristics of three Mediterranean lizards: Psammodromus algirus (L), Psammodromus hispanicus Fitzinger and Acanthodactylus erythrurus (Schinz). Amphibia-Reptilia, 17(3), 197-208.</t>
+  </si>
+  <si>
+    <t>Ramírez-Bautista, A., Hernández-Salinas, U., Cruz-Elizalde, R., Lozano, A., &amp; DE J RODRÍGUEZ-ROMERO, F. E. L. I. P. E. (2016). Sexual dimorphism and reproductive traits over time in Sceloporus aeneus (Squamata: Phrynosomatidae), based on a population in the Transmexican Volcanic Belt, Mexico. Salamandra, 52(2).</t>
+  </si>
+  <si>
+    <t>Rodríguez-Romero, F., Smith, G. R., Cuellar, O., &amp; de la Cruz, F. R. M. (2004). Reproductive traits of a high elevation viviparous lizard Sceloporus bicanthalis (Lacertilia: Phrynosomatidae) from Mexico. Journal of Herpetology, 38(3), 438-443.</t>
+  </si>
+  <si>
+    <t>Ramírez-Bautista, A., Cruz-Elizalde, R., Hernández-Salinas, U., Lozano, A., &amp; Grummer, J. A. (2017). Reproductive trait variation in the Sceloporus scalaris species group (Squamata: Phrynosomatidae) from the Transvolcanic Belt, Mexico. Biological Journal of the Linnean Society, 122(4), 838-849.</t>
+  </si>
+  <si>
+    <t>Valdéz-González, M. A., &amp; Ramírez-Bautista, A. (2002). Reproductive characteristics of the spiny lizards, Sceloporus horridus and Sceloporus spinosus (Squamata: Phrynosomatidae) from México. Journal of Herpetology, 36-43.</t>
+  </si>
+  <si>
+    <t>Helfert, S. C. (1978). Reproductive ecology of three lizard species at White Sands National Monument. The University of Texas at El Paso.</t>
+  </si>
+  <si>
+    <t>Callard, I. P., Bayne, C. G., &amp; McConnell, W. F. (1972). Hormones and reproduction in the female lizard Sceloporus cyanogenys. General and Comparative Endocrinology, 18(1), 175-194.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Guillette Jr, L. J., &amp; Sullivan, W. P. (1985). The reproductive and fat body cycles of the lizard, Sceloporus formosus. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Herpetology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 474-480.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ramírez-Bautista, A., Ortíz-Cruz, A. L., Del Coro Arizmendi, M., &amp; Campos, J. (2005). Reproductive characteristics of two syntopic lizard species, Sceloporus gadoviae and Sceloporus jalapae (Squamata: Phrynosomatidae), from Tehuacan Valley, Puebla, Mexico. Western North American Naturalist, 202-209.</t>
+  </si>
+  <si>
+    <t>Tinkle, D. W., Dunham, A. E., &amp; Congdon, J. D. (1993). Life history and demographic variation in the lizard Sceloporus graciosus: a long‐term study. Ecology, 74(8), 2413-2429.</t>
+  </si>
+  <si>
+    <t>Gadsden, H., Ortiz-Lomas, C., Gil-Martinez, R., Leyva-Pacheco, S. V., Estrada-Rodriguez, J. L., &amp; Smith, G. (2008). Reproductive cycle of the spiny lizard Sceloporus jarrovii from the central Chihuahuan Desert, Mexico. The Herpetological Journal, 18(4), 205-211.</t>
+  </si>
+  <si>
+    <t>Aspectos de la reproducción, dieta y edad de la especie microendémica Sceloporus macdougalli Smith y Bumzahem, 1953 (Squamata: Phrynosomatidae), de Tehuantepec, Oaxaca. Roberto Lhemish Martínez-Bernal, Catalina Beatriz Chávez Tapia, Rodolfo García-Collazo</t>
+  </si>
+  <si>
+    <t>Parker, W. S., &amp; Pianka, E. R. (1973). Notes on the ecology of the iguanid lizard, Sceloporus magister. Herpetologica, 143-152.</t>
+  </si>
+  <si>
+    <t>Marion, K. R., &amp; Sexton, O. J. (1971). The reproductive cycle of the lizard Sceloporus malachiticus in Costa Rica. Copeia, 517-526.</t>
+  </si>
+  <si>
+    <t>Grant, B. W., &amp; Dunham, A. E. (1990). Elevational covariation in environmental constraints and life histories of the desert lizard Sceloporus merriami. Ecology, 71(5), 1765-1776.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Méndez-De La Cruz, F. R., Villagrán-Santa Cruz, M., &amp; Cuellar, O. (1994). Geographic variation of spermatogenesis in the Mexican viviparous lizard Sceloporus mucronatus. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Biogeographica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 59-67.</t>
+    </r>
+  </si>
+  <si>
+    <t>Goldberg, S. R. (1974). Reproduction in mountain and lowland populations of the lizard Sceloporus occidentalis. Copeia, 176-182.</t>
+  </si>
+  <si>
+    <t>Goldberg, S. R. (1973). Ovarian cycle of the western fence lizard, Sceloporus occidentalis. Herpetologica, 284-289.</t>
+  </si>
+  <si>
+    <t>Ramírez-Pinilla, M. P., Calderón-Espinosa, M. L., Flores-Villela, O., Muñoz-Alonso, A., &amp; de la Cruz, F. R. M. (2009). Reproductive activity of three sympatric viviparous lizards at Omiltemi, Guerrero, Sierra Madre del Sur, Mexico. Journal of Herpetology, 409-420.</t>
+  </si>
+  <si>
+    <t>Mayhew, W. W. (1963). Reproduction in the granite spiny lizard, Sceloporus orcutti. Copeia, 144-152.</t>
+  </si>
+  <si>
+    <t>Ramírez-Bautista, A., &amp; Olvera-Becerril, V. (2004). Reproduction in the boulder spiny lizard, Sceloporus pyrocephalus (Sauria: Phrynosomatidae), from a tropical dry forest of Mexico. Journal of Herpetology, 38(2), 225-231.</t>
+  </si>
+  <si>
+    <t>Guillette Jr, L. J., &amp; Méndez-de la Cruz, F. R. (1993). The reproductive cycle of the viviparous Mexican lizard Sceloporus torquatus. Journal of Herpetology, 168-174.</t>
+  </si>
+  <si>
+    <r>
+      <t>Tinkle, D. W., &amp; Ballinger, R. E. (1972). Sceloporus undulatus: a study of the intraspecific comparative demography of a lizard. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ecology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 570-584.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ramírez-Bautista, A., &amp; Gutiérrez-Mayén, G. (2003). Reproductive ecology of Sceloporus utiformis (Sauria: Phrynosomatidae) from a tropical dry forest of Mexico. Journal of Herpetology, 1-10.</t>
+  </si>
+  <si>
+    <t>Jackson, J. F., &amp; Telford Jr, S. R. (1974). Reproductive ecology of the Florida scrub lizard, Sceloporus woodi. Copeia, 689-694.</t>
+  </si>
+  <si>
+    <t>Yong-Pu, Z. H. A. N. G., &amp; Xiang, J. I. (2000). Ontogenetic changes of sexual dimorphism in head size and food habit in grass lizard, Takydromus septentrionalis. Zoological Research, 21(3), 181-186.</t>
+  </si>
+  <si>
+    <t>Wang, C. F., Du, Y., Guo, K., &amp; Ji, X. (2024). Species-Specific Seasonal Shifts in Reproductive Allocation in the Southern Grass Lizard, Takydromus sexlineatus (Lacertidae). Animals, 14(8), 1167.</t>
+  </si>
+  <si>
+    <t>Romero-Schmidt, H. L., Ortega-Rubio, A., &amp; Acevedo-Beltran, M. (1999). Reproductive characteristics of the black-tailed brush lizard, Urosaurus nigricaudus (Phrynosomatidae). Revista de Biología Tropical, 47(4), 1111-1115.</t>
+  </si>
+  <si>
+    <t>Martin, R. F. (1977). Variation in reproductive productivity of range margin tree lizards (Urosaurus ornatus). Copeia, 83-92.</t>
+  </si>
+  <si>
+    <t>Parker, W. S., &amp; Pianka, E. R. (1975). Comparative ecology of populations of the lizard Uta stansburiana. Copeia, 615-632.</t>
+  </si>
+  <si>
+    <t>Goldberg, S. R., &amp; Bezy, R. L. (1974). Reproduction in the island night lizard, Xantusia riversiana. Herpetologica, 350-360.</t>
+  </si>
+  <si>
+    <t>Miller, M. R. (1951). Some aspects of the life history of the yucca night lizard, Xantusia vigilis. Copeia, 1951(2), 114-120.</t>
+  </si>
+  <si>
+    <t>breed_ref</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Taylor, J. E. (2004). Reproduction in sympatric lizards: comparison of two species of Ctenotus (Scincidae) in south-eastern Australia. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Australian Journal of Zoology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6), 649-666.</t>
+    </r>
+  </si>
+  <si>
+    <t>Taylor J E. (2005) .Reproduction in sympatric lizards: comparison of two species of Ctenotus (Scincidae) in south-eastern Australia. Australian journal of zoology.52(6): 649-666.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ljungström, G., Wapstra, E., &amp; Olsson, M. (2015). Sand lizard (Lacerta agilis) phenology in a warming world. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BMC evolutionary biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 1-9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cheetham, E., Doody, J. S., Stewart, B., &amp; Harlow, P. (2011). Embryonic mortality as a cost of communal nesting in the delicate skink. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Zoology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>283</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 234-242.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allison, P. S., &amp; Cepeda, J. C. (2009). Nesting and hatchling behavior of the Texas horned lizard (Phrynosoma cornutum). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The Southwestern Naturalist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 211-213.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Damme, R., BAUwENS, D. I. R. K., Braña, F., &amp; Verheyen, R. F. (1992). Incubation temperature differentially affects hatching time, egg survival, and hatchling performance in the lizard Podarcis muralis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Herpetologica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 220-228.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pleguezuelos, J. M., Galán, P., &amp; Fernández-Cardenete, J. R. (2004). Communal nesting of Psammodromus algirus (Linnaeus, 1758), under extreme environmental conditions. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Amphibia-Reptilia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 333-336.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Velázquez-Rodríguez, A. S., García-Cruz, A., Burggren, W., &amp; Rodríguez-Romero, F. D. J. (2019). Physical and chemical variables promote successful nesting in high mountain Sceloporus lizards in central México. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Herpetologica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2), 134-142.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vitt, L. J., &amp; Ohmart, R. D. (1974). Reproduction and ecology of a Colorado River population of Sceloporus magister (Sauria: Iguanidae). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Herpetologica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 410-417.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Angilletta Jr, M. J., Sears, M. W., &amp; Pringle, R. M. (2009). Spatial dynamics of nesting behavior: lizards shift microhabitats to construct nests with beneficial thermal properties. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ecology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10), 2933-2939.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HOKIT, D. G., &amp; BRANCH, L. C. (2004). Soil moisture alters egg development in the Florida scrub lizard, Sceloporus woodi. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of the North Carolina Academy of Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 93-98.</t>
     </r>
   </si>
 </sst>
@@ -169,7 +1239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +1257,12 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -211,9 +1287,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,64 +1625,678 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6649E9-330F-4F81-B369-1EB67AFCE1FA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB7A8A9-5FFC-4066-97AB-3AA0BB011B6E}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
